--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -49,115 +49,112 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>cake</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>new</t>
   </si>
   <si>
     <t>works</t>
@@ -166,16 +163,19 @@
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>clean</t>
@@ -184,13 +184,13 @@
     <t>quality</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
   </si>
   <si>
     <t>use</t>
@@ -623,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3023255813953488</v>
+        <v>0.3178294573643411</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +673,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +699,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8591331269349846</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>555</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>555</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +725,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8436532507739938</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>545</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>545</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -751,13 +751,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7922077922077922</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -777,13 +777,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -803,13 +803,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.6986301369863014</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -829,13 +829,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.6956521739130435</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -855,13 +855,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6711864406779661</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L11">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="M11">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -881,13 +881,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6571428571428571</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -907,13 +907,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6470588235294118</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -933,13 +933,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6461538461538462</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -959,13 +959,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6444444444444445</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -985,13 +985,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.637239165329053</v>
+        <v>0.6332263242375602</v>
       </c>
       <c r="L16">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="M16">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1011,13 +1011,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6285714285714286</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1037,13 +1037,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6197183098591549</v>
+        <v>0.5625</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1063,13 +1063,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5972222222222222</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1089,13 +1089,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5641025641025641</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1115,13 +1115,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5614035087719298</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1141,13 +1141,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5573770491803278</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1167,13 +1167,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5329341317365269</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L23">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="M23">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1193,13 +1193,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.515625</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1219,13 +1219,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1245,13 +1245,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4736842105263158</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L26">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M26">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1271,13 +1271,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4736842105263158</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1297,13 +1297,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.4698795180722892</v>
+        <v>0.41</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1323,13 +1323,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4457831325301205</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L29">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1349,13 +1349,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3872549019607843</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L30">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="M30">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>250</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1375,13 +1375,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.38</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1401,13 +1401,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.3383458646616541</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>88</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1427,13 +1427,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3229571984435798</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L33">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>174</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1453,13 +1453,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3123287671232877</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L34">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>502</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1479,13 +1479,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2792792792792793</v>
+        <v>0.2835616438356164</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>80</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1505,13 +1505,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2648008611410119</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L36">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="M36">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>683</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1531,13 +1531,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2440191387559809</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>233</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>158</v>
+        <v>696</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1557,13 +1557,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.2382445141065831</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L38">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M38">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1583,7 +1583,7 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2119205298013245</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L39">
         <v>32</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1609,13 +1609,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2086330935251799</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="M40">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>110</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1635,13 +1635,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1986754966887417</v>
+        <v>0.1854219948849105</v>
       </c>
       <c r="L41">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M41">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>605</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1661,25 +1661,25 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1828644501278772</v>
+        <v>0.1327913279132791</v>
       </c>
       <c r="L42">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>639</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1687,13 +1687,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1581508515815085</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L43">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1713,25 +1713,25 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1378378378378378</v>
+        <v>0.1167883211678832</v>
       </c>
       <c r="L44">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M44">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1739,13 +1739,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.1218487394957983</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>209</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1765,25 +1765,25 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1099656357388316</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M46">
         <v>32</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1791,13 +1791,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.1030701754385965</v>
+        <v>0.1096491228070175</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M47">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1817,13 +1817,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1002386634844869</v>
+        <v>0.08353221957040573</v>
       </c>
       <c r="L48">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1843,13 +1843,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.09772727272727273</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L49">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>397</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1869,25 +1869,25 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.07182835820895522</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L50">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M50">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>995</v>
+        <v>649</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1895,13 +1895,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.06025824964131994</v>
+        <v>0.05788982259570495</v>
       </c>
       <c r="L51">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M51">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N51">
         <v>0.98</v>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>655</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1921,25 +1921,25 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.03206239168110919</v>
+        <v>0.03802938634399308</v>
       </c>
       <c r="L52">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M52">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
